--- a/assets/Attributes/Generic attributes/LEVEL1_ICON_Library.xlsx
+++ b/assets/Attributes/Generic attributes/LEVEL1_ICON_Library.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\ICON KPI analytics\Attributes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\PycharmProjects\daopi\assets\Attributes\Generic attributes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9324" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>d_level1_id</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +526,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -530,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
